--- a/game/Resources/DB/Excel/bbb_www.xlsx
+++ b/game/Resources/DB/Excel/bbb_www.xlsx
@@ -403,7 +403,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -465,7 +465,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
